--- a/Reportes_datos_numéricos/reporte_2024-05-10_Monterrey.xlsx
+++ b/Reportes_datos_numéricos/reporte_2024-05-10_Monterrey.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -442,76 +442,166 @@
       <c r="B2" t="n">
         <v>29.5</v>
       </c>
+      <c r="C2" t="n">
+        <v>57.7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>262.9</v>
+      </c>
     </row>
     <row r="3">
       <c r="B3" t="n">
         <v>25.9</v>
       </c>
+      <c r="C3" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>125.9</v>
+      </c>
     </row>
     <row r="4">
       <c r="B4" t="n">
         <v>27.4</v>
       </c>
+      <c r="C4" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="D4" t="n">
+        <v>299</v>
+      </c>
     </row>
     <row r="5">
       <c r="B5" t="n">
         <v>29.7</v>
       </c>
+      <c r="C5" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>235.4</v>
+      </c>
     </row>
     <row r="6">
       <c r="B6" t="n">
         <v>27.3</v>
       </c>
+      <c r="C6" t="n">
+        <v>70.3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>307</v>
+      </c>
     </row>
     <row r="7">
       <c r="B7" t="n">
         <v>27</v>
       </c>
+      <c r="C7" t="n">
+        <v>76</v>
+      </c>
+      <c r="D7" t="n">
+        <v>202</v>
+      </c>
     </row>
     <row r="8">
       <c r="B8" t="n">
         <v>29.6</v>
       </c>
+      <c r="C8" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>323.4</v>
+      </c>
     </row>
     <row r="9">
       <c r="B9" t="n">
         <v>26.9</v>
       </c>
+      <c r="C9" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>24.8</v>
+      </c>
     </row>
     <row r="10">
       <c r="B10" t="n">
         <v>26.4</v>
       </c>
+      <c r="C10" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="D10" t="n">
+        <v>286.8</v>
+      </c>
     </row>
     <row r="11">
       <c r="B11" t="n">
         <v>26.7</v>
       </c>
+      <c r="C11" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>332.8</v>
+      </c>
     </row>
     <row r="12">
       <c r="B12" t="n">
         <v>25.8</v>
       </c>
+      <c r="C12" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="D12" t="n">
+        <v>305.8</v>
+      </c>
     </row>
     <row r="13">
       <c r="B13" t="n">
         <v>27.7</v>
       </c>
+      <c r="C13" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="D13" t="n">
+        <v>326.3</v>
+      </c>
     </row>
     <row r="14">
       <c r="B14" t="n">
         <v>31</v>
       </c>
+      <c r="C14" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>333.1</v>
+      </c>
     </row>
     <row r="15">
       <c r="B15" t="n">
         <v>28.5</v>
       </c>
+      <c r="C15" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="D15" t="n">
+        <v>313.5</v>
+      </c>
     </row>
     <row r="16">
       <c r="B16" t="n">
         <v>27.7</v>
       </c>
+      <c r="C16" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="D16" t="n">
+        <v>327.9</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -522,6 +612,12 @@
       <c r="B17" t="n">
         <v>27.80666666666667</v>
       </c>
+      <c r="C17" t="n">
+        <v>61.33333333333332</v>
+      </c>
+      <c r="D17" t="n">
+        <v>267.1066666666667</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -530,6 +626,16 @@
         </is>
       </c>
       <c r="B18" t="inlineStr">
+        <is>
+          <t>2024-05-10</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2024-05-10</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>2024-05-10</t>
         </is>
